--- a/pdf_v2/test_custom_folder/Excel/w2.xlsx
+++ b/pdf_v2/test_custom_folder/Excel/w2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="W2_Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -57,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,14 +433,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -494,29 +491,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Manar N Abughannam</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>2</v>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>617-12-8871</t>
         </is>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -526,29 +519,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Yarahely Arroyo</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>693-19-3542</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="n">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -558,29 +547,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Josselyn Ayra Arrieta</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>621-50-4377</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,29 +575,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ANNER E BACA MARADIAGA</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>2</v>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>610-29-7698</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -622,29 +603,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ihab T Bourdoud</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>2</v>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>617-17-8335</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,29 +631,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jaad Bourdoud</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>2</v>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>616-15-5557</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -686,29 +659,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Juan DeDIos Canizal Mendoza</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>2</v>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>577-61-1285</t>
         </is>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -718,29 +687,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Jose L Cardoza Urbina</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>2</v>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>632-15-7684</t>
         </is>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2" t="n">
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -750,29 +715,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Alejandra Caro</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>2</v>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>604-81-6007</t>
         </is>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="n">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -782,29 +743,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Fernando Carrasco Nino</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>2</v>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>496-49-1186</t>
         </is>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -814,29 +771,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Oliver Castaneda</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>2</v>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>622-21-5476</t>
         </is>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -846,29 +799,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Celia Cisneros</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>999-71-2832</t>
         </is>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H13" s="2" t="n">
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -878,29 +827,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Jose G Cruz</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>2</v>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>418-16-3122</t>
         </is>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="n">
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -910,29 +855,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Guadalupe Delgado</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>2</v>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>001-24-1022</t>
         </is>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H15" s="2" t="n">
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -942,29 +883,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Isabel Delgado</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>2</v>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>962-19-1273</t>
         </is>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="n">
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -974,29 +911,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Damian Espino Martinez</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>2</v>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>762-93-8730</t>
         </is>
       </c>
-      <c r="F17" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H17" s="2" t="n">
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,29 +939,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Nancy D Euceda Arriola</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>2</v>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>061-19-5340</t>
         </is>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="n">
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1038,29 +967,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Janet G. Velasco</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>2</v>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>922-99-7404</t>
         </is>
       </c>
-      <c r="F19" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2" t="n">
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,29 +995,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Raul Galindo</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>2</v>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>624-36-1226</t>
         </is>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="n">
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1102,29 +1023,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Marvin Garcia</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>2</v>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>602-45-0171</t>
         </is>
       </c>
-      <c r="F21" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H21" s="2" t="n">
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1134,29 +1051,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Sergio Gonzalez Huerta</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>2</v>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>502-14-7813</t>
         </is>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="n">
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1166,29 +1079,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Edwin Y Guevara Cortez</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>2</v>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>866-61-4012</t>
         </is>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H23" s="2" t="n">
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1198,29 +1107,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Carlos Gutierrez</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>2</v>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>649-23-1414</t>
         </is>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="n">
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1230,29 +1135,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Juan F Jaco</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>2</v>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>977-92-4025</t>
         </is>
       </c>
-      <c r="F25" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H25" s="2" t="n">
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1262,29 +1163,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Ruben D Jimenez</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>2</v>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>979-98-1376</t>
         </is>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2" t="n">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1294,29 +1191,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Itzel A Lopez</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>2</v>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>202-30-7041</t>
         </is>
       </c>
-      <c r="F27" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H27" s="2" t="n">
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1326,29 +1219,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Kleyver S Lopez Hernandez</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>2</v>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>389-94-3461</t>
         </is>
       </c>
-      <c r="F28" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="n">
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1358,29 +1247,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Marvin E Mansilla</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>2</v>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>631-90-9322</t>
         </is>
       </c>
-      <c r="F29" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H29" s="2" t="n">
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1390,29 +1275,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>JOSE L MEDRANO CUEVAS</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>2</v>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>618-25-1077</t>
         </is>
       </c>
-      <c r="F30" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2" t="n">
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,29 +1303,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Ivan I Montoya Palomino</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>2</v>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>639-31-5725</t>
         </is>
       </c>
-      <c r="F31" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H31" s="2" t="n">
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1454,29 +1331,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Juan C Moreno</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>2</v>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>612-12-4796</t>
         </is>
       </c>
-      <c r="F32" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2" t="n">
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,29 +1359,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Yojaira M Orizabal</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>2</v>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>607-25-1251</t>
         </is>
       </c>
-      <c r="F33" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H33" s="2" t="n">
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1518,29 +1387,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Jason A Otting</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>2</v>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>229-55-1969</t>
         </is>
       </c>
-      <c r="F34" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2" t="n">
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1550,29 +1415,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>VANESSA R PADILLA</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>2</v>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>604-41-7604</t>
         </is>
       </c>
-      <c r="F35" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H35" s="2" t="n">
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1582,29 +1443,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Alfredo A Paredes Ramirez</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>2</v>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>620-91-1528</t>
         </is>
       </c>
-      <c r="F36" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2" t="n">
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1614,29 +1471,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Hector Perez</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>2</v>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>634-09-1865</t>
         </is>
       </c>
-      <c r="F37" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H37" s="2" t="n">
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1646,29 +1499,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Yunior Perez</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>2</v>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>629-49-1786</t>
         </is>
       </c>
-      <c r="F38" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2" t="n">
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1678,29 +1527,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>JOSE A PEREZ</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>2</v>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>665-30-1833</t>
         </is>
       </c>
-      <c r="F39" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H39" s="2" t="n">
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1710,29 +1555,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>NOE I PEREZ</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>2</v>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>604-64-3227</t>
         </is>
       </c>
-      <c r="F40" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2" t="n">
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1742,29 +1583,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>RAUL PEREZ</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>2</v>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>624-28-5390</t>
         </is>
       </c>
-      <c r="F41" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H41" s="2" t="n">
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1774,29 +1611,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Carlos Podilla</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>2</v>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>985-71-6038</t>
         </is>
       </c>
-      <c r="F42" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2" t="n">
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1806,29 +1639,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Roberto Jarquin Ramirez</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>2</v>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>623-10-7824</t>
         </is>
       </c>
-      <c r="F43" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H43" s="2" t="n">
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,29 +1667,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Giovana B Reyes Gato</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>2</v>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>627-46-8163</t>
         </is>
       </c>
-      <c r="F44" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2" t="n">
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1870,29 +1695,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Rocael Reyes Veliz</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>2</v>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>613-60-1246</t>
         </is>
       </c>
-      <c r="F45" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H45" s="2" t="n">
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,29 +1723,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Efrain Rios</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>2</v>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>610-14-1562</t>
         </is>
       </c>
-      <c r="F46" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2" t="n">
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1934,29 +1751,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Felipe Robles</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>2</v>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>571-57-9096</t>
         </is>
       </c>
-      <c r="F47" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H47" s="2" t="n">
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1966,29 +1779,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Lizbeth Rodriguez</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>2</v>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>058-46-2389</t>
         </is>
       </c>
-      <c r="F48" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2" t="n">
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1998,29 +1807,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Jose Rodriguez Cervantes</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>2</v>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>566-88-8881</t>
         </is>
       </c>
-      <c r="F49" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H49" s="2" t="n">
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2030,29 +1835,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Jose Rodriguez Delgado</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>2</v>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>709-23-3410</t>
         </is>
       </c>
-      <c r="F50" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2" t="n">
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2062,29 +1863,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Luis E Rodriguez Delgado</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>2</v>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>111-97-9564</t>
         </is>
       </c>
-      <c r="F51" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H51" s="2" t="n">
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2094,29 +1891,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Juan A Rodriguez Gutierrez</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>2</v>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>629-74-9850</t>
         </is>
       </c>
-      <c r="F52" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2" t="n">
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2126,29 +1919,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Alicia Rodriguez Torres</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>2</v>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>607-45-8937</t>
         </is>
       </c>
-      <c r="F53" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H53" s="2" t="n">
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2158,29 +1947,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Juan L Rodriguez Torres</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>2</v>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>355-21-1211</t>
         </is>
       </c>
-      <c r="F54" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2" t="n">
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2190,29 +1975,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Tanya D Sandoval Angulo</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>2</v>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>624-70-3262</t>
         </is>
       </c>
-      <c r="F55" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H55" s="2" t="n">
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2222,29 +2003,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Eris Silva Aguilar</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>2</v>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>686-32-7214</t>
         </is>
       </c>
-      <c r="F56" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="2" t="n">
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,29 +2031,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Gabriel J Trujillo</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>2</v>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>559-77-4595</t>
         </is>
       </c>
-      <c r="F57" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H57" s="2" t="n">
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2286,29 +2059,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Jose L Truleque Pat</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>2</v>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>621-20-1764</t>
         </is>
       </c>
-      <c r="F58" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2" t="n">
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,29 +2087,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Gabriela Uluac-Puc</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>2</v>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>624-19-6287</t>
         </is>
       </c>
-      <c r="F59" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H59" s="2" t="n">
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2350,29 +2115,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Alejandro Vargas</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>2</v>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>512-36-7291</t>
         </is>
       </c>
-      <c r="F60" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="2" t="n">
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2382,29 +2143,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Ismael Vasquez</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>2</v>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>532-65-9022</t>
         </is>
       </c>
-      <c r="F61" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H61" s="2" t="n">
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2414,29 +2171,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Alexis R Vega Cabanilla</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>2</v>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>619-07-1830</t>
         </is>
       </c>
-      <c r="F62" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2" t="n">
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2446,29 +2199,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Victor Villalpando</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>2</v>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>553-08-5323</t>
         </is>
       </c>
-      <c r="F63" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G63" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H63" s="2" t="n">
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2478,29 +2227,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Cristopher Winters</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>2</v>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>434-23-5583</t>
         </is>
       </c>
-      <c r="F64" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2" t="n">
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2510,29 +2255,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Jamex L Zelada Ramirez</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2" t="n">
-        <v>2</v>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>627-51-8914</t>
         </is>
       </c>
-      <c r="F65" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G65" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H65" s="2" t="n">
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2542,29 +2283,25 @@
           <t>Ocomar Enterprises LLC</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Victor A Zuniga</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>94133</v>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>2</v>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>606-51-8832</t>
         </is>
       </c>
-      <c r="F66" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G66" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H66" s="2" t="n">
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
         <v>0</v>
       </c>
     </row>
